--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5241ef04d76f4464"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R096456cd13cd44a0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R096456cd13cd44a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R2c8f1d35061c49b1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R2c8f1d35061c49b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R690bf4fdc887430a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R690bf4fdc887430a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rca65a656379b41b5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,7 +27,7 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rca65a656379b41b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R0de84aa081db4c06"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R0de84aa081db4c06"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R1d5883900a824771"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R1d5883900a824771"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rd51fc0fdc9074ad0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rd51fc0fdc9074ad0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3ae42827ce8c4a58"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3ae42827ce8c4a58"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R642c50b67d214c33"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R642c50b67d214c33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rd82a4cf5e5774947"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rd82a4cf5e5774947"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R45f652e41e524fb4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R45f652e41e524fb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra48cc08af7d44a83"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra48cc08af7d44a83"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R9b52c583664f4c0f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R9b52c583664f4c0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rfe91df9dcf88495d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rfe91df9dcf88495d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Raefdea4ea33641ff"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Raefdea4ea33641ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra62c9504ae014c53"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra62c9504ae014c53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R971dc6ea907c4d69"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R971dc6ea907c4d69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R98ca07e39c3446e3"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R98ca07e39c3446e3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5b4bf9f12f7a4232"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5b4bf9f12f7a4232"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5966ac116d044fa0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5966ac116d044fa0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5e75977d27d84637"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5e75977d27d84637"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R16501dc211094c23"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R16501dc211094c23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rffa70a853a024bf3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rffa70a853a024bf3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R7dab9660129b4ad3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R7dab9660129b4ad3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R981ab2f1dc5441e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R981ab2f1dc5441e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R35e7c7b8863047c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R35e7c7b8863047c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3824012a7635437f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3824012a7635437f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rc9f05b92f8374907"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rc9f05b92f8374907"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R4c7c9198c7754857"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R4c7c9198c7754857"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rdb914b3ba5b74661"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rdb914b3ba5b74661"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R1b3de694cc094c82"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R1b3de694cc094c82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R16146cd3256448d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R16146cd3256448d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R9252e70e410049bc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R9252e70e410049bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra4c4daeec6334ce6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra4c4daeec6334ce6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R35b50f8402864370"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R35b50f8402864370"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rc3b61c41841d41f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rc3b61c41841d41f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R306eeef2a15040d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R306eeef2a15040d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5c063008bc914872"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R5c063008bc914872"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rc801b9c054664066"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rc801b9c054664066"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R47f8b3d3fef54dc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R47f8b3d3fef54dc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3a2b5c2c89014c38"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3a2b5c2c89014c38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Raf5b293c18244713"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Raf5b293c18244713"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R472df660ceeb4dcb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R472df660ceeb4dcb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R024e1f0833ed4880"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/01_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R024e1f0833ed4880"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R9cd35982995f4290"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
